--- a/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
+++ b/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\InputData\indst\PPRiFUfERoIF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\PPRiFUfERoIF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_63DF528D99D2D5AD9858320B802DC069E93AB818" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="110" windowWidth="21080" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,527 +17,515 @@
     <sheet name="Results" sheetId="3" r:id="rId3"/>
     <sheet name="PPRiFUfERoIF" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="163">
+  <si>
+    <t>Industrial Sector Macroeconomic Indicators</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>United States Energy Information Administration</t>
+  </si>
+  <si>
+    <t>We assume that the amount of production capacity that would be brought offline (net)</t>
+  </si>
+  <si>
+    <t>in response to the EIA's most stringent carbon price scenario ($25/ton) is the same</t>
+  </si>
+  <si>
+    <t>capacity that would have been targetable by an early retirement policy.</t>
+  </si>
+  <si>
+    <t>We approximate the reduction in (net) production capacity via the change in value</t>
+  </si>
+  <si>
+    <t>We will assume any of these effects could be achieved by an early</t>
+  </si>
+  <si>
+    <t>facilities, retiring parts of facilities, or reducing the use of targetable facilities.</t>
+  </si>
+  <si>
+    <t>Industrial Sector Macroeconomic Indicators, Reference Case and GHG $25 Case</t>
+  </si>
+  <si>
+    <t>Industry Subscript Values</t>
+  </si>
+  <si>
+    <t>cement and other carbonates</t>
+  </si>
+  <si>
+    <t>natural gas and petroleum systems</t>
+  </si>
+  <si>
+    <t>iron and steel</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>mining</t>
+  </si>
+  <si>
+    <t>waste management</t>
+  </si>
+  <si>
+    <t>other industries</t>
+  </si>
+  <si>
+    <t>Percent Targetable Facilities</t>
+  </si>
+  <si>
+    <t>Rationale</t>
+  </si>
+  <si>
+    <t>Early retirement policy based on energy efficiency of facility operations is unlikely to be applicable to mines.</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Green = calculated value</t>
+  </si>
+  <si>
+    <t>Orange = assumption</t>
+  </si>
+  <si>
+    <t>Early retirement policy based on energy efficiency of facility operations is unlikely to be applicable to landfills and wastewater treatment plants.</t>
+  </si>
+  <si>
+    <t>of shipments by industry.  We use year 2030 (the model end year).</t>
+  </si>
+  <si>
+    <t>Note that we do not care if the capacity retirements come from retiring entire</t>
+  </si>
+  <si>
+    <t>reflect the fact that these facilities are less efficient than average, so our estimated</t>
+  </si>
+  <si>
+    <t>While this approach approximates the amount of targetable (net) capacity, it does not</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>potential energy use reductions are likely to be conservative.</t>
+  </si>
+  <si>
+    <t>retirement policy depending on how it is worded and implemented.</t>
+  </si>
+  <si>
+    <t>Industries</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>Early retirement policy based on energy efficiency of facility operations is unlikely to be applicable to agricultural operations.</t>
+  </si>
+  <si>
+    <t>Annual Energy Outlook 2014</t>
+  </si>
+  <si>
+    <t>http://www.eia.gov/beta/aeo/#/?id=34-AEO2014&amp;region=0-0&amp;cases=ref2014~co2fee25&amp;start=2029&amp;end=2030&amp;f=A</t>
+  </si>
+  <si>
+    <t>Wed Aug 26 2015 13:31:30 GMT-0700 (Pacific Daylight Time)</t>
+  </si>
+  <si>
+    <t>Source: U.S. Energy Information Administration</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>linechart</t>
+  </si>
+  <si>
+    <t>source key</t>
+  </si>
+  <si>
+    <t>&lt;div title='Growth Rate (2012-2040)'&gt;Growth Rate&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Gross Domestic Product</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Gross Domestic Product : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Gross Domestic Product : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Employment, Nonfarm</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Employment, Nonfarm : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Employment, Nonfarm : Reference case</t>
+  </si>
+  <si>
+    <t>Value of Shipments (billion 2005 dollars)&lt;sup&gt;&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>Nonmanufacturing Sector&lt;sup&gt;&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Nonmanufacturing: Agriculture/Forestry/Fishing/Hunting</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Nonmanufacturing: Agriculture/Forestry/Fishing/Hunting : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Nonmanufacturing: Agriculture/Forestry/Fishing/Hunting : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Nonmanufacturing: Mining</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Nonmanufacturing: Mining : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Nonmanufacturing: Mining : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Nonmanufacturing: Construction</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Nonmanufacturing: Construction : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Nonmanufacturing: Construction : Reference case</t>
+  </si>
+  <si>
+    <t>Manufacturing Sector&lt;sup&gt;&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Food Products</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Food Products : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Food Products : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Beverages and Tobacco Products</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Beverages and Tobacco Products : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Beverages and Tobacco Products : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Textile Mills and Products</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Textile Mills and Products : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Textile Mills and Products : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Wood Products</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Wood Products : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Wood Products : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Furniture and Related Products</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Furniture and Related Products : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Furniture and Related Products : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Paper Products</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Paper Products : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Paper Products : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Printing</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Printing : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Printing : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemical Manufacturing</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemical Manufacturing : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemical Manufacturing : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Inorganic</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Inorganic : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Inorganic : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Organic</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Organic : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Organic : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Resin, Synthetic Rubber, and Fibers</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Resin, Synthetic Rubber, and Fibers : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Resin, Synthetic Rubber, and Fibers : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Agricultural Chemicals</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Agricultural Chemicals : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Agricultural Chemicals : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Other Chemical Products</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Other Chemical Products : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Other Chemical Products : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Petroleum and Coal Products</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Petroleum and Coal Products : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Petroleum and Coal Products : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Petroleum and Coal: Petroleum Refineries</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Petroleum and Coal: Petroleum Refineries : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Petroleum and Coal: Petroleum Refineries : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Petroleum and Coal: Other Petroleum &amp; Coal Products</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Petroleum and Coal: Other Petroleum &amp; Coal Products : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Petroleum and Coal: Other Petroleum &amp; Coal Products : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Plastics and Rubber Products</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Plastics and Rubber Products : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Plastics and Rubber Products : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass Products</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass Products : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass Products : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass: Glass and Glass Products</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass: Glass and Glass Products : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass: Glass and Glass Products : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass: Cement and Lime</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass: Cement and Lime : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass: Cement and Lime : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass: Other Nonmetallic Mineral Products</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass: Other Nonmetallic Mineral Products : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass: Other Nonmetallic Mineral Products : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Primary Metals Industry</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Primary Metals Industry : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Primary Metals Industry : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Primary Metals: Iron and Steel Mills and Products</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Primary Metals: Iron and Steel Mills and Products : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Primary Metals: Iron and Steel Mills and Products : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Primary Metals: Alumina and Aluminum Products</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Primary Metals: Alumina and Aluminum Products : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Primary Metals: Alumina and Aluminum Products : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Primary Metals: Other Primary Metal Products</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Primary Metals: Other Primary Metal Products : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Primary Metals: Other Primary Metal Products : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Fabricated Metal Products</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Fabricated Metal Products : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Fabricated Metal Products : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Machinery</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Machinery : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Machinery : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Computers and Electronics</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Computers and Electronics : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Computers and Electronics : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Transportation Equipment</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Transportation Equipment : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Transportation Equipment : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Electrical Equipment</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Electrical Equipment : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Electrical Equipment : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Miscellaneous Manufacturing</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Miscellaneous Manufacturing : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Manufacturing: Miscellaneous Manufacturing : Reference case</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Total Industrial Value of Shipments</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Total Industrial Value of Shipments : Greenhouse gas $25</t>
+  </si>
+  <si>
+    <t>Industrial Macroeconomic : Total Industrial Value of Shipments : Reference case</t>
+  </si>
+  <si>
+    <t>(This case doesn't exist in AEO2015 or AEO2016, so we use AEO2014 for this variable.)</t>
+  </si>
   <si>
     <t>PPRiFUfERoIF Potential Perc Reduction in Fuel Use from Early Retirement of Inefficient Facilities</t>
   </si>
   <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>United States Energy Information Administration</t>
-  </si>
-  <si>
-    <t>Annual Energy Outlook 2014</t>
-  </si>
-  <si>
-    <t>http://www.eia.gov/beta/aeo/#/?id=34-AEO2014&amp;region=0-0&amp;cases=ref2014~co2fee25&amp;start=2029&amp;end=2030&amp;f=A</t>
-  </si>
-  <si>
-    <t>Industrial Sector Macroeconomic Indicators, Reference Case and GHG $25 Case</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>We assume that the amount of production capacity that would be brought offline (net)</t>
-  </si>
-  <si>
-    <t>in response to the EIA's most stringent carbon price scenario ($25/ton) is the same</t>
-  </si>
-  <si>
-    <t>capacity that would have been targetable by an early retirement policy.</t>
-  </si>
-  <si>
-    <t>(This case doesn't exist in AEO2015 or AEO2016, so we use AEO2014 for this variable.)</t>
-  </si>
-  <si>
-    <t>We approximate the reduction in (net) production capacity via the change in value</t>
-  </si>
-  <si>
-    <t>of shipments by industry.  We use year 2030 (the model end year).</t>
-  </si>
-  <si>
-    <t>While this approach approximates the amount of targetable (net) capacity, it does not</t>
-  </si>
-  <si>
-    <t>reflect the fact that these facilities are less efficient than average, so our estimated</t>
-  </si>
-  <si>
-    <t>potential energy use reductions are likely to be conservative.</t>
-  </si>
-  <si>
-    <t>Note that we do not care if the capacity retirements come from retiring entire</t>
-  </si>
-  <si>
-    <t>facilities, retiring parts of facilities, or reducing the use of targetable facilities.</t>
-  </si>
-  <si>
-    <t>We will assume any of these effects could be achieved by an early</t>
-  </si>
-  <si>
-    <t>retirement policy depending on how it is worded and implemented.</t>
-  </si>
-  <si>
-    <t>use US value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Industrial Sector Macroeconomic Indicators</t>
-  </si>
-  <si>
-    <t>Wed Aug 26 2015 13:31:30 GMT-0700 (Pacific Daylight Time)</t>
-  </si>
-  <si>
-    <t>Source: U.S. Energy Information Administration</t>
-  </si>
-  <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>linechart</t>
-  </si>
-  <si>
-    <t>source key</t>
-  </si>
-  <si>
-    <t>&lt;div title='Growth Rate (2012-2040)'&gt;Growth Rate&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Gross Domestic Product</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Gross Domestic Product : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Gross Domestic Product : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Employment, Nonfarm</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Employment, Nonfarm : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Employment, Nonfarm : Reference case</t>
-  </si>
-  <si>
-    <t>Value of Shipments (billion 2005 dollars)&lt;sup&gt;&lt;/sup&gt;</t>
-  </si>
-  <si>
-    <t>Nonmanufacturing Sector&lt;sup&gt;&lt;/sup&gt;</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Nonmanufacturing: Agriculture/Forestry/Fishing/Hunting</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Nonmanufacturing: Agriculture/Forestry/Fishing/Hunting : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Nonmanufacturing: Agriculture/Forestry/Fishing/Hunting : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Nonmanufacturing: Mining</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Nonmanufacturing: Mining : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Nonmanufacturing: Mining : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Nonmanufacturing: Construction</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Nonmanufacturing: Construction : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Nonmanufacturing: Construction : Reference case</t>
-  </si>
-  <si>
-    <t>Manufacturing Sector&lt;sup&gt;&lt;/sup&gt;</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Food Products</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Food Products : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Food Products : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Beverages and Tobacco Products</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Beverages and Tobacco Products : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Beverages and Tobacco Products : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Textile Mills and Products</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Textile Mills and Products : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Textile Mills and Products : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Wood Products</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Wood Products : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Wood Products : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Furniture and Related Products</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Furniture and Related Products : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Furniture and Related Products : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Paper Products</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Paper Products : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Paper Products : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Printing</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Printing : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Printing : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemical Manufacturing</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemical Manufacturing : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemical Manufacturing : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Inorganic</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Inorganic : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Inorganic : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Organic</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Organic : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Organic : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Resin, Synthetic Rubber, and Fibers</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Resin, Synthetic Rubber, and Fibers : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Resin, Synthetic Rubber, and Fibers : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Agricultural Chemicals</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Agricultural Chemicals : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Bulk Chemicals: Agricultural Chemicals : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Other Chemical Products</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Other Chemical Products : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Chemicals: Other Chemical Products : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Petroleum and Coal Products</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Petroleum and Coal Products : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Petroleum and Coal Products : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Petroleum and Coal: Petroleum Refineries</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Petroleum and Coal: Petroleum Refineries : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Petroleum and Coal: Petroleum Refineries : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Petroleum and Coal: Other Petroleum &amp; Coal Products</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Petroleum and Coal: Other Petroleum &amp; Coal Products : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Petroleum and Coal: Other Petroleum &amp; Coal Products : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Plastics and Rubber Products</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Plastics and Rubber Products : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Plastics and Rubber Products : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass Products</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass Products : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass Products : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass: Glass and Glass Products</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass: Glass and Glass Products : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass: Glass and Glass Products : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass: Cement and Lime</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass: Cement and Lime : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass: Cement and Lime : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass: Other Nonmetallic Mineral Products</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass: Other Nonmetallic Mineral Products : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Stone, Clay, and Glass: Other Nonmetallic Mineral Products : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Primary Metals Industry</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Primary Metals Industry : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Primary Metals Industry : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Primary Metals: Iron and Steel Mills and Products</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Primary Metals: Iron and Steel Mills and Products : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Primary Metals: Iron and Steel Mills and Products : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Primary Metals: Alumina and Aluminum Products</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Primary Metals: Alumina and Aluminum Products : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Primary Metals: Alumina and Aluminum Products : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Primary Metals: Other Primary Metal Products</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Primary Metals: Other Primary Metal Products : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Primary Metals: Other Primary Metal Products : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Fabricated Metal Products</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Fabricated Metal Products : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Fabricated Metal Products : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Machinery</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Machinery : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Machinery : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Computers and Electronics</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Computers and Electronics : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Computers and Electronics : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Transportation Equipment</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Transportation Equipment : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Transportation Equipment : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Electrical Equipment</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Electrical Equipment : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Electrical Equipment : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Miscellaneous Manufacturing</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Miscellaneous Manufacturing : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Manufacturing: Miscellaneous Manufacturing : Reference case</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Total Industrial Value of Shipments</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Total Industrial Value of Shipments : Greenhouse gas $25</t>
-  </si>
-  <si>
-    <t>Industrial Macroeconomic : Total Industrial Value of Shipments : Reference case</t>
-  </si>
-  <si>
-    <t>Industry Subscript Values</t>
-  </si>
-  <si>
-    <t>Percent Targetable Facilities</t>
-  </si>
-  <si>
-    <t>Rationale</t>
-  </si>
-  <si>
-    <t>cement and other carbonates</t>
-  </si>
-  <si>
-    <t>natural gas and petroleum systems</t>
-  </si>
-  <si>
-    <t>iron and steel</t>
-  </si>
-  <si>
-    <t>chemicals</t>
-  </si>
-  <si>
-    <t>mining</t>
-  </si>
-  <si>
-    <t>Early retirement policy based on energy efficiency of facility operations is unlikely to be applicable to mines.</t>
-  </si>
-  <si>
-    <t>waste management</t>
-  </si>
-  <si>
-    <t>Early retirement policy based on energy efficiency of facility operations is unlikely to be applicable to landfills and wastewater treatment plants.</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>Early retirement policy based on energy efficiency of facility operations is unlikely to be applicable to agricultural operations.</t>
-  </si>
-  <si>
-    <t>other industries</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Green = calculated value</t>
-  </si>
-  <si>
-    <t>Orange = assumption</t>
-  </si>
-  <si>
-    <t>Industries</t>
-  </si>
-  <si>
-    <t>Perc Fuel Use Reduction</t>
+    <t>Perc Fuel Use Reduction (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -546,7 +533,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -554,23 +541,8 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -660,6 +632,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -683,13 +658,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -784,23 +758,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -836,23 +793,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1028,25 +968,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="81.5" customWidth="1"/>
+    <col min="1" max="1" width="16.73046875" customWidth="1"/>
+    <col min="2" max="2" width="81.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1054,150 +992,144 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" s="20" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="106" customWidth="1"/>
-    <col min="2" max="5" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="2" max="5" width="9.1328125" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>2029</v>
@@ -1206,20 +1138,20 @@
         <v>2030</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1234,9 +1166,9 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1251,17 +1183,17 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1276,9 +1208,9 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1293,27 +1225,27 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="19" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1328,9 +1260,9 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="19" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1345,17 +1277,17 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1370,9 +1302,9 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1387,17 +1319,17 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1412,9 +1344,9 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1429,22 +1361,22 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -1459,9 +1391,9 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1476,17 +1408,17 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -1501,9 +1433,9 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -1518,17 +1450,17 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -1543,9 +1475,9 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -1560,17 +1492,17 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -1585,9 +1517,9 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -1602,17 +1534,17 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -1627,9 +1559,9 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -1644,17 +1576,17 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -1669,9 +1601,9 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -1686,17 +1618,17 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -1711,9 +1643,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -1728,17 +1660,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -1753,9 +1685,9 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -1770,17 +1702,17 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="18" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -1795,9 +1727,9 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="18" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -1812,17 +1744,17 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -1837,9 +1769,9 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -1854,17 +1786,17 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -1879,9 +1811,9 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -1896,17 +1828,17 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
@@ -1921,9 +1853,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -1938,17 +1870,17 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
@@ -1963,9 +1895,9 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
@@ -1980,17 +1912,17 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
@@ -2005,9 +1937,9 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
@@ -2022,17 +1954,17 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="18" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
@@ -2047,9 +1979,9 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="18" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
@@ -2064,17 +1996,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
@@ -2089,9 +2021,9 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
@@ -2106,17 +2038,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
@@ -2131,9 +2063,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
@@ -2148,17 +2080,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
@@ -2173,9 +2105,9 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
@@ -2190,17 +2122,17 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
@@ -2215,9 +2147,9 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
@@ -2232,17 +2164,17 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
@@ -2257,9 +2189,9 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
@@ -2274,17 +2206,17 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="18" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
@@ -2299,9 +2231,9 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="18" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
@@ -2316,17 +2248,17 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
@@ -2341,9 +2273,9 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
@@ -2358,17 +2290,17 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
@@ -2383,9 +2315,9 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
@@ -2400,17 +2332,17 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="18" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
@@ -2425,9 +2357,9 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="18" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
@@ -2442,17 +2374,17 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
@@ -2467,9 +2399,9 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
@@ -2484,17 +2416,17 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
@@ -2509,9 +2441,9 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
@@ -2526,17 +2458,17 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C102" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C103" t="b">
         <v>1</v>
@@ -2551,9 +2483,9 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C104" t="b">
         <v>1</v>
@@ -2568,17 +2500,17 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C105" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C106" t="b">
         <v>1</v>
@@ -2593,9 +2525,9 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C107" t="b">
         <v>1</v>
@@ -2610,17 +2542,17 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C108" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C109" t="b">
         <v>1</v>
@@ -2635,9 +2567,9 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C110" t="b">
         <v>1</v>
@@ -2652,17 +2584,17 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C111" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C112" t="b">
         <v>1</v>
@@ -2677,9 +2609,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C113" t="b">
         <v>1</v>
@@ -2694,17 +2626,17 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C114" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C115" t="b">
         <v>1</v>
@@ -2719,9 +2651,9 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C116" t="b">
         <v>1</v>
@@ -2736,17 +2668,17 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C117" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C118" t="b">
         <v>1</v>
@@ -2761,9 +2693,9 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C119" t="b">
         <v>1</v>
@@ -2778,17 +2710,17 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C120" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C121" t="b">
         <v>1</v>
@@ -2803,9 +2735,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C122" t="b">
         <v>1</v>
@@ -2821,239 +2753,238 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.25" customWidth="1"/>
-    <col min="2" max="2" width="36.875" customWidth="1"/>
-    <col min="3" max="3" width="68.5" customWidth="1"/>
+    <col min="1" max="1" width="34.265625" customWidth="1"/>
+    <col min="2" max="2" width="36.86328125" customWidth="1"/>
+    <col min="3" max="3" width="68.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="9">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10">
         <f>(SourceData!F86-SourceData!F85)/SourceData!F86</f>
         <v>6.3063063063063002E-2</v>
       </c>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="9">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10">
         <f>(SourceData!F68-SourceData!F67)/SourceData!F68</f>
         <v>4.4599912549191031E-2</v>
       </c>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="9">
+        <v>13</v>
+      </c>
+      <c r="B4" s="10">
         <f>(SourceData!F95-SourceData!F94)/SourceData!F95</f>
         <v>8.8038858530661818E-2</v>
       </c>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="9">
+        <v>14</v>
+      </c>
+      <c r="B5" s="10">
         <f>(SourceData!F50-SourceData!F49)/SourceData!F50</f>
         <v>1.9812758545612937E-2</v>
       </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3" ht="27.95">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="10">
+        <v>15</v>
+      </c>
+      <c r="B6" s="11">
         <v>0</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="42">
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="10">
+        <v>16</v>
+      </c>
+      <c r="B7" s="11">
         <v>0</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27.95">
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="10">
+        <v>33</v>
+      </c>
+      <c r="B8" s="11">
         <v>0</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.45" thickBot="1">
+      <c r="C8" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="11">
+        <v>17</v>
+      </c>
+      <c r="B9" s="12">
         <f>((SourceData!F122-SUM(SourceData!F50,SourceData!F68,SourceData!F86,SourceData!F95))-(SourceData!F121-SUM(SourceData!F49,SourceData!F67,SourceData!F85,SourceData!F94)))/(SourceData!F122-SUM(SourceData!F50,SourceData!F68,SourceData!F86,SourceData!F95))</f>
         <v>1.6129032258064387E-2</v>
       </c>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3" ht="14.45" thickBot="1"/>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.45" thickBot="1">
-      <c r="A13" s="7" t="s">
-        <v>161</v>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.25" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="14">
+        <v>11</v>
+      </c>
+      <c r="B2" s="15">
         <f>Results!B2</f>
         <v>6.3063063063063002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="14">
+        <v>12</v>
+      </c>
+      <c r="B3" s="15">
         <f>Results!B3</f>
         <v>4.4599912549191031E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="14">
+        <v>13</v>
+      </c>
+      <c r="B4" s="15">
         <f>Results!B4</f>
         <v>8.8038858530661818E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="14">
+        <v>14</v>
+      </c>
+      <c r="B5" s="15">
         <f>Results!B5</f>
         <v>1.9812758545612937E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="15">
+        <v>15</v>
+      </c>
+      <c r="B6" s="16">
         <f>Results!B6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="15">
+        <v>16</v>
+      </c>
+      <c r="B7" s="16">
         <f>Results!B7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="15">
+        <v>33</v>
+      </c>
+      <c r="B8" s="16">
         <f>Results!B8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="14">
+        <v>17</v>
+      </c>
+      <c r="B9" s="15">
         <f>Results!B9</f>
         <v>1.6129032258064387E-2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -3312,13 +3243,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5463297F-B29E-4EDF-BB21-18181BA29584}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D556877A-257F-4CFB-9BC9-D4D16B7CEDF9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC18635A-8053-41CA-8DD3-E34599DD4160}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E8A4BF-E5D0-499D-B214-6C5235BC76EA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A9CAD8D-AF69-46BB-8ECE-D9EE1E46C65F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DED9-8632-486E-911B-46F845725B1C}"/>
 </file>